--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Schoolwork\Y1.2 Frosh Spring\Summer\Project-C\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796423D7-C339-4878-9A18-A8B33C6BE109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD8546C-5DB9-46DE-8CAD-2F435920FA89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1221AA35-BCB8-4C74-B687-47C4736C9332}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="164">
   <si>
     <t>Model</t>
   </si>
@@ -517,6 +517,12 @@
   </si>
   <si>
     <t>100% embed size 2000, 50 epochs [1200,200] ReLU Adam 1e-5</t>
+  </si>
+  <si>
+    <t>^ are 1000, 2000 without ReLU?</t>
+  </si>
+  <si>
+    <t>100% embed size 2000, 40 epochs [1200,800] ReLU Adam 1e-5</t>
   </si>
 </sst>
 </file>
@@ -14720,8 +14726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF2ADD22-63B2-4186-B7AB-3D6251EEC8C5}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
@@ -18768,24 +18774,24 @@
         <v>1.2619876485994199</v>
       </c>
       <c r="G126">
-        <f>E126/$I$2</f>
+        <f t="shared" ref="G126:G134" si="162">E126/$I$2</f>
         <v>0.16898790899450686</v>
       </c>
       <c r="H126">
-        <f>F126/$I$2</f>
+        <f t="shared" ref="H126:H134" si="163">F126/$I$2</f>
         <v>0.52089689937808759</v>
       </c>
       <c r="J126">
-        <f>G126+H126</f>
+        <f t="shared" ref="J126:J134" si="164">G126+H126</f>
         <v>0.68988480837259447</v>
       </c>
       <c r="K126">
-        <f>G126*H126</f>
+        <f t="shared" ref="K126:K134" si="165">G126*H126</f>
         <v>8.8025277827625065E-2</v>
       </c>
       <c r="L126" s="2"/>
       <c r="M126">
-        <f>0.1385*LN(G126)+H126</f>
+        <f t="shared" ref="M126:M134" si="166">0.1385*LN(G126)+H126</f>
         <v>0.27465385600047565</v>
       </c>
       <c r="N126">
@@ -18809,24 +18815,24 @@
         <v>1.27121706921885</v>
       </c>
       <c r="G127">
-        <f>E127/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.16010395456540427</v>
       </c>
       <c r="H127">
-        <f>F127/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.5247064268239805</v>
       </c>
       <c r="J127">
-        <f>G127+H127</f>
+        <f t="shared" si="164"/>
         <v>0.68481038138938477</v>
       </c>
       <c r="K127">
-        <f>G127*H127</f>
+        <f t="shared" si="165"/>
         <v>8.4007573920402201E-2</v>
       </c>
       <c r="L127" s="2"/>
       <c r="M127">
-        <f>0.1385*LN(G127)+H127</f>
+        <f t="shared" si="166"/>
         <v>0.27098385054560681</v>
       </c>
       <c r="N127">
@@ -18850,24 +18856,24 @@
         <v>1.2438485498420999</v>
       </c>
       <c r="G128">
-        <f>E128/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.1716467189246321</v>
       </c>
       <c r="H128">
-        <f>F128/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.51340982110859168</v>
       </c>
       <c r="J128">
-        <f>G128+H128</f>
+        <f t="shared" si="164"/>
         <v>0.6850565400332238</v>
       </c>
       <c r="K128">
-        <f>G128*H128</f>
+        <f t="shared" si="165"/>
         <v>8.8125111256972088E-2</v>
       </c>
       <c r="L128" s="2"/>
       <c r="M128">
-        <f>0.1385*LN(G128)+H128</f>
+        <f t="shared" si="166"/>
         <v>0.26932893403502994</v>
       </c>
       <c r="N128">
@@ -18891,24 +18897,24 @@
         <v>1.27297744917351</v>
       </c>
       <c r="G129">
-        <f>E129/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.16292736455255347</v>
       </c>
       <c r="H129">
-        <f>F129/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.52543303968831978</v>
       </c>
       <c r="J129">
-        <f>G129+H129</f>
+        <f t="shared" si="164"/>
         <v>0.6883604042408733</v>
       </c>
       <c r="K129">
-        <f>G129*H129</f>
+        <f t="shared" si="165"/>
         <v>8.5607420405255166E-2</v>
       </c>
       <c r="L129" s="2"/>
       <c r="M129">
-        <f>0.1385*LN(G129)+H129</f>
+        <f t="shared" si="166"/>
         <v>0.27413160475618831</v>
       </c>
       <c r="N129">
@@ -18932,24 +18938,24 @@
         <v>1.2470962712278399</v>
       </c>
       <c r="G130">
-        <f>E130/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.17236146872179939</v>
       </c>
       <c r="H130">
-        <f>F130/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.51475034769912797</v>
       </c>
       <c r="J130">
-        <f>G130+H130</f>
+        <f t="shared" si="164"/>
         <v>0.68711181642092733</v>
       </c>
       <c r="K130">
-        <f>G130*H130</f>
+        <f t="shared" si="165"/>
         <v>8.8723125954478607E-2</v>
       </c>
       <c r="L130" s="2"/>
       <c r="M130">
-        <f>0.1385*LN(G130)+H130</f>
+        <f t="shared" si="166"/>
         <v>0.27124498756306292</v>
       </c>
       <c r="N130">
@@ -18975,25 +18981,25 @@
         <v>1.2122551185741599</v>
       </c>
       <c r="G131" s="5">
-        <f>E131/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.18665498178174242</v>
       </c>
       <c r="H131" s="5">
-        <f>F131/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.50036934451878601</v>
       </c>
       <c r="I131" s="5"/>
       <c r="J131" s="5">
-        <f>G131+H131</f>
+        <f t="shared" si="164"/>
         <v>0.68702432630052845</v>
       </c>
       <c r="K131" s="5">
-        <f>G131*H131</f>
+        <f t="shared" si="165"/>
         <v>9.3396430885296394E-2</v>
       </c>
       <c r="L131" s="6"/>
       <c r="M131" s="5">
-        <f>0.1385*LN(G131)+H131</f>
+        <f t="shared" si="166"/>
         <v>0.26789801090705923</v>
       </c>
       <c r="N131">
@@ -19017,24 +19023,24 @@
         <v>1.2527474501435201</v>
       </c>
       <c r="G132">
-        <f>E132/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.17074512581949194</v>
       </c>
       <c r="H132">
-        <f>F132/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.51708292328199967</v>
       </c>
       <c r="J132">
-        <f>G132+H132</f>
+        <f t="shared" si="164"/>
         <v>0.68782804910149165</v>
       </c>
       <c r="K132">
-        <f>G132*H132</f>
+        <f t="shared" si="165"/>
         <v>8.8289388794895729E-2</v>
       </c>
       <c r="L132" s="2"/>
       <c r="M132">
-        <f>0.1385*LN(G132)+H132</f>
+        <f t="shared" si="166"/>
         <v>0.27227263254073197</v>
       </c>
       <c r="N132">
@@ -19058,24 +19064,24 @@
         <v>1.24984102691225</v>
       </c>
       <c r="G133">
-        <f>E133/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.17218797136439548</v>
       </c>
       <c r="H133">
-        <f>F133/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.5158832706141393</v>
       </c>
       <c r="J133">
-        <f>G133+H133</f>
+        <f t="shared" si="164"/>
         <v>0.68807124197853475</v>
       </c>
       <c r="K133">
-        <f>G133*H133</f>
+        <f t="shared" si="165"/>
         <v>8.8828893827878105E-2</v>
       </c>
       <c r="L133" s="2"/>
       <c r="M133">
-        <f>0.1385*LN(G133)+H133</f>
+        <f t="shared" si="166"/>
         <v>0.27223842752883243</v>
       </c>
       <c r="N133">
@@ -19099,24 +19105,24 @@
         <v>1.2563005435622101</v>
       </c>
       <c r="G134">
-        <f>E134/$I$2</f>
+        <f t="shared" si="162"/>
         <v>0.16783125994514969</v>
       </c>
       <c r="H134">
-        <f>F134/$I$2</f>
+        <f t="shared" si="163"/>
         <v>0.51854949496124736</v>
       </c>
       <c r="J134">
-        <f>G134+H134</f>
+        <f t="shared" si="164"/>
         <v>0.68638075490639705</v>
       </c>
       <c r="K134">
-        <f>G134*H134</f>
+        <f t="shared" si="165"/>
         <v>8.7028815083267194E-2</v>
       </c>
       <c r="L134" s="2"/>
       <c r="M134">
-        <f>0.1385*LN(G134)+H134</f>
+        <f t="shared" si="166"/>
         <v>0.27135521995656675</v>
       </c>
       <c r="N134">
@@ -19142,25 +19148,25 @@
         <v>1.2074697591871999</v>
       </c>
       <c r="G135" s="3">
-        <f t="shared" ref="G135:G142" si="162">E135/$I$2</f>
+        <f t="shared" ref="G135:G141" si="167">E135/$I$2</f>
         <v>0.1888007140566399</v>
       </c>
       <c r="H135" s="3">
-        <f t="shared" ref="H135:H142" si="163">F135/$I$2</f>
+        <f t="shared" ref="H135:H141" si="168">F135/$I$2</f>
         <v>0.49839414383449743</v>
       </c>
       <c r="I135" s="3"/>
       <c r="J135" s="3">
-        <f t="shared" ref="J135:J142" si="164">G135+H135</f>
+        <f t="shared" ref="J135:J141" si="169">G135+H135</f>
         <v>0.68719485789113732</v>
       </c>
       <c r="K135" s="3">
-        <f t="shared" ref="K135:K142" si="165">G135*H135</f>
+        <f t="shared" ref="K135:K141" si="170">G135*H135</f>
         <v>9.4097170237600808E-2</v>
       </c>
       <c r="L135" s="4"/>
       <c r="M135" s="3">
-        <f t="shared" ref="M135:M142" si="166">0.1385*LN(G135)+H135</f>
+        <f t="shared" ref="M135:M143" si="171">0.1385*LN(G135)+H135</f>
         <v>0.26750588465154279</v>
       </c>
       <c r="O135">
@@ -19181,24 +19187,24 @@
         <v>1.24156724112534</v>
       </c>
       <c r="G136">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.17222207768251774</v>
       </c>
       <c r="H136">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0.51246819015174105</v>
       </c>
       <c r="J136">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.68469026783425879</v>
       </c>
       <c r="K136">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>8.8258336454132419E-2</v>
       </c>
       <c r="L136" s="2"/>
       <c r="M136">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0.26885077788669309</v>
       </c>
       <c r="O136">
@@ -19219,24 +19225,24 @@
         <v>1.26410010454501</v>
       </c>
       <c r="G137">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.16266489419135333</v>
       </c>
       <c r="H137">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0.52176883481529401</v>
       </c>
       <c r="J137">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.68443372900664734</v>
       </c>
       <c r="K137">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>8.4873472307575512E-2</v>
       </c>
       <c r="L137" s="2"/>
       <c r="M137">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0.27024410125167209</v>
       </c>
       <c r="O137">
@@ -19257,24 +19263,24 @@
         <v>1.23218693079551</v>
       </c>
       <c r="G138">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.17551407882299636</v>
       </c>
       <c r="H138">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0.50859638160319021</v>
       </c>
       <c r="J138">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.68411046042618651</v>
       </c>
       <c r="K138">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>8.9265825409793054E-2</v>
       </c>
       <c r="L138" s="2"/>
       <c r="M138">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0.2676013930990947</v>
       </c>
       <c r="O138">
@@ -19295,24 +19301,24 @@
         <v>1.27844540486942</v>
       </c>
       <c r="G139">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.16523028246749213</v>
       </c>
       <c r="H139">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0.52768998821796453</v>
       </c>
       <c r="J139">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.6929202706854567</v>
       </c>
       <c r="K139">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>8.719036580852188E-2</v>
       </c>
       <c r="L139" s="2"/>
       <c r="M139">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0.27833249315900366</v>
       </c>
       <c r="O139">
@@ -19333,24 +19339,24 @@
         <v>1.27235951988331</v>
       </c>
       <c r="G140">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.16783719147873594</v>
       </c>
       <c r="H140">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0.52517798374410574</v>
       </c>
       <c r="J140">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.69301517522284173</v>
       </c>
       <c r="K140">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>8.814439781807594E-2</v>
       </c>
       <c r="L140" s="2"/>
       <c r="M140">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0.27798860355392618</v>
       </c>
       <c r="O140">
@@ -19371,24 +19377,24 @@
         <v>1.28296850356926</v>
       </c>
       <c r="G141">
-        <f t="shared" si="162"/>
+        <f t="shared" si="167"/>
         <v>0.1701415922770711</v>
       </c>
       <c r="H141">
-        <f t="shared" si="163"/>
+        <f t="shared" si="168"/>
         <v>0.52955693841430163</v>
       </c>
       <c r="J141">
-        <f t="shared" si="164"/>
+        <f t="shared" si="169"/>
         <v>0.69969853069137278</v>
       </c>
       <c r="K141">
-        <f t="shared" si="165"/>
+        <f t="shared" si="170"/>
         <v>9.0099660703180151E-2</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141">
-        <f t="shared" si="166"/>
+        <f t="shared" si="171"/>
         <v>0.28425622385463423</v>
       </c>
       <c r="O141">
@@ -19396,12 +19402,50 @@
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C142" s="5"/>
+      <c r="C142" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="L142" s="2"/>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C143" s="5"/>
-      <c r="L143" s="2"/>
+      <c r="A143" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3">
+        <v>0.41329050939647699</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1.24138042529342</v>
+      </c>
+      <c r="G143" s="3">
+        <f t="shared" ref="G143" si="172">E143/$I$2</f>
+        <v>0.17058942306284802</v>
+      </c>
+      <c r="H143" s="3">
+        <f t="shared" ref="H143" si="173">F143/$I$2</f>
+        <v>0.51239108021511848</v>
+      </c>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3">
+        <f t="shared" ref="J142:J143" si="174">G143+H143</f>
+        <v>0.68298050327796656</v>
+      </c>
+      <c r="K143" s="3">
+        <f t="shared" ref="K142:K143" si="175">G143*H143</f>
+        <v>8.7408498756446545E-2</v>
+      </c>
+      <c r="L143" s="4"/>
+      <c r="M143" s="3">
+        <f t="shared" si="171"/>
+        <v>0.26745443347876308</v>
+      </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C144" s="5"/>
@@ -19427,7 +19471,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19439,7 +19483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M1 K1:K1048576">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -19451,7 +19495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
